--- a/data/pca/factorExposure/factorExposure_2013-03-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-14.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001184711381601552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002113923211298815</v>
+      </c>
+      <c r="C2">
+        <v>-0.03335437355541605</v>
+      </c>
+      <c r="D2">
+        <v>0.002205538639211185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001762659378706988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005941535455612886</v>
+      </c>
+      <c r="C4">
+        <v>-0.08449466876782839</v>
+      </c>
+      <c r="D4">
+        <v>-0.07906933065608132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.000326648898393415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01356329895841507</v>
+      </c>
+      <c r="C6">
+        <v>-0.1137424201986111</v>
+      </c>
+      <c r="D6">
+        <v>-0.03236302605099731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001741518479272727</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004729435577133289</v>
+      </c>
+      <c r="C7">
+        <v>-0.05618237421450714</v>
+      </c>
+      <c r="D7">
+        <v>-0.03299079527347644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003025101194414112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005662993714688944</v>
+      </c>
+      <c r="C8">
+        <v>-0.0386666817514204</v>
+      </c>
+      <c r="D8">
+        <v>-0.0418208147308987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004107746829138798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004068553778043737</v>
+      </c>
+      <c r="C9">
+        <v>-0.07058979384520997</v>
+      </c>
+      <c r="D9">
+        <v>-0.07036166761370929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004218926683461627</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005283783929493963</v>
+      </c>
+      <c r="C10">
+        <v>-0.05975457511731713</v>
+      </c>
+      <c r="D10">
+        <v>0.2000246679601972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002609011342535489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005323508444951648</v>
+      </c>
+      <c r="C11">
+        <v>-0.08076737681784533</v>
+      </c>
+      <c r="D11">
+        <v>-0.05914548294625851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0003482023466309549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003926614170352775</v>
+      </c>
+      <c r="C12">
+        <v>-0.06443124867008138</v>
+      </c>
+      <c r="D12">
+        <v>-0.04587514435625485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003321670832256454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00853913073932268</v>
+      </c>
+      <c r="C13">
+        <v>-0.06684508798274379</v>
+      </c>
+      <c r="D13">
+        <v>-0.06872890642330536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001222760567808048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001362579849668346</v>
+      </c>
+      <c r="C14">
+        <v>-0.04624362167034737</v>
+      </c>
+      <c r="D14">
+        <v>-0.00792686689579675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001071225930650405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005786047495958557</v>
+      </c>
+      <c r="C15">
+        <v>-0.0422247266186558</v>
+      </c>
+      <c r="D15">
+        <v>-0.03145756128064966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001159170589739228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004934433049905478</v>
+      </c>
+      <c r="C16">
+        <v>-0.06651436461979669</v>
+      </c>
+      <c r="D16">
+        <v>-0.04539305609453066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>2.648529212759845e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008748608716080419</v>
+      </c>
+      <c r="C20">
+        <v>-0.06773447076258145</v>
+      </c>
+      <c r="D20">
+        <v>-0.04659475137923905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005317799959258242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009788384451535544</v>
+      </c>
+      <c r="C21">
+        <v>-0.02328961022600569</v>
+      </c>
+      <c r="D21">
+        <v>-0.0359793079901681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01791285036682877</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006984718976593741</v>
+      </c>
+      <c r="C22">
+        <v>-0.09457211560030196</v>
+      </c>
+      <c r="D22">
+        <v>-0.1001145380104119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01822602587126763</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006805770000084584</v>
+      </c>
+      <c r="C23">
+        <v>-0.09535793181136194</v>
+      </c>
+      <c r="D23">
+        <v>-0.1002192911023373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001810791573637367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005076499796425085</v>
+      </c>
+      <c r="C24">
+        <v>-0.07597184731333705</v>
+      </c>
+      <c r="D24">
+        <v>-0.05810285983011193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003616390772256679</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002760843830872646</v>
+      </c>
+      <c r="C25">
+        <v>-0.0784932036288928</v>
+      </c>
+      <c r="D25">
+        <v>-0.06444966640142223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005758147888822949</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003442864986615612</v>
+      </c>
+      <c r="C26">
+        <v>-0.04189289758147707</v>
+      </c>
+      <c r="D26">
+        <v>-0.02342680341950459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004295752926038956</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001200996867611187</v>
+      </c>
+      <c r="C28">
+        <v>-0.1074615830749564</v>
+      </c>
+      <c r="D28">
+        <v>0.3192109892037435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001152432549381863</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002997816532171872</v>
+      </c>
+      <c r="C29">
+        <v>-0.0494230340669165</v>
+      </c>
+      <c r="D29">
+        <v>-0.003973363425253599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003288547855144397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008960328829786373</v>
+      </c>
+      <c r="C30">
+        <v>-0.1453076398522911</v>
+      </c>
+      <c r="D30">
+        <v>-0.1001490777182201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0007503284062444805</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006076101041915555</v>
+      </c>
+      <c r="C31">
+        <v>-0.04527011559122158</v>
+      </c>
+      <c r="D31">
+        <v>-0.03212301477336656</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0001102500557579037</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003799186588714216</v>
+      </c>
+      <c r="C32">
+        <v>-0.04018874256514717</v>
+      </c>
+      <c r="D32">
+        <v>-0.0245549367426372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003016090498677126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007930034398951919</v>
+      </c>
+      <c r="C33">
+        <v>-0.08695724178126707</v>
+      </c>
+      <c r="D33">
+        <v>-0.06996194949310662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004225842879632786</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003825173756579164</v>
+      </c>
+      <c r="C34">
+        <v>-0.05895652162908587</v>
+      </c>
+      <c r="D34">
+        <v>-0.04963559476353041</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002319008260954725</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.00470438057158812</v>
+      </c>
+      <c r="C35">
+        <v>-0.03940922024090262</v>
+      </c>
+      <c r="D35">
+        <v>-0.01313491585399005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004044026829081311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001434294003121803</v>
+      </c>
+      <c r="C36">
+        <v>-0.02483155198699487</v>
+      </c>
+      <c r="D36">
+        <v>-0.01959050171215293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.00245212693360249</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009438963012170922</v>
+      </c>
+      <c r="C38">
+        <v>-0.0338073422736682</v>
+      </c>
+      <c r="D38">
+        <v>-0.02082661059106557</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01230072249784921</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001037744102421476</v>
+      </c>
+      <c r="C39">
+        <v>-0.1174000594392267</v>
+      </c>
+      <c r="D39">
+        <v>-0.07060002379143002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00933343287968668</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.00203723007368054</v>
+      </c>
+      <c r="C40">
+        <v>-0.08875258620680852</v>
+      </c>
+      <c r="D40">
+        <v>-0.01536873682795855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.000321391180361998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007151809230726955</v>
+      </c>
+      <c r="C41">
+        <v>-0.03786508155095282</v>
+      </c>
+      <c r="D41">
+        <v>-0.03495220456663568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003118247713113665</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003505291365162911</v>
+      </c>
+      <c r="C43">
+        <v>-0.05199175245622134</v>
+      </c>
+      <c r="D43">
+        <v>-0.02366598914035519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002967865931367713</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003115150396530124</v>
+      </c>
+      <c r="C44">
+        <v>-0.1126001946503046</v>
+      </c>
+      <c r="D44">
+        <v>-0.07130832861480313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001481663058940915</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002290857166017178</v>
+      </c>
+      <c r="C46">
+        <v>-0.03549320595334365</v>
+      </c>
+      <c r="D46">
+        <v>-0.02732373491855472</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>7.907208332889618e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002677361489342011</v>
+      </c>
+      <c r="C47">
+        <v>-0.03791164053027852</v>
+      </c>
+      <c r="D47">
+        <v>-0.02590925511284532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003623256124708519</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006332154183134178</v>
+      </c>
+      <c r="C48">
+        <v>-0.02904748876501851</v>
+      </c>
+      <c r="D48">
+        <v>-0.03101309099534666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01342872245199804</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01462128536059362</v>
+      </c>
+      <c r="C49">
+        <v>-0.1832381518373438</v>
+      </c>
+      <c r="D49">
+        <v>-0.01360145000673828</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0008020476673833563</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003485078505200437</v>
+      </c>
+      <c r="C50">
+        <v>-0.04439473857803877</v>
+      </c>
+      <c r="D50">
+        <v>-0.03529665469480372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0003904557656382869</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004265687750442108</v>
+      </c>
+      <c r="C51">
+        <v>-0.02538532782816897</v>
+      </c>
+      <c r="D51">
+        <v>-0.02014974498363193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0006751177646251888</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02016305152574975</v>
+      </c>
+      <c r="C53">
+        <v>-0.16904862297738</v>
+      </c>
+      <c r="D53">
+        <v>-0.03689930716693487</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001581050832330533</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008638380122987753</v>
+      </c>
+      <c r="C54">
+        <v>-0.05573570494644428</v>
+      </c>
+      <c r="D54">
+        <v>-0.04212928254823036</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004140296108549683</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009179693268810006</v>
+      </c>
+      <c r="C55">
+        <v>-0.1104773009940845</v>
+      </c>
+      <c r="D55">
+        <v>-0.04384484565186429</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003119853899798746</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01962882991752742</v>
+      </c>
+      <c r="C56">
+        <v>-0.1759861729571991</v>
+      </c>
+      <c r="D56">
+        <v>-0.0352380575057061</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007112498872984018</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0194720641354893</v>
+      </c>
+      <c r="C58">
+        <v>-0.1117293919700823</v>
+      </c>
+      <c r="D58">
+        <v>-0.05510041380448298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007021182937522657</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008934649929558983</v>
+      </c>
+      <c r="C59">
+        <v>-0.1603186626175302</v>
+      </c>
+      <c r="D59">
+        <v>0.3038953286878421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004112698795664945</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02299056663034622</v>
+      </c>
+      <c r="C60">
+        <v>-0.2235534944273001</v>
+      </c>
+      <c r="D60">
+        <v>-0.01952781577278499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01409023811223763</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002128407024903776</v>
+      </c>
+      <c r="C61">
+        <v>-0.09562322491123119</v>
+      </c>
+      <c r="D61">
+        <v>-0.05644596340319025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1689466130531246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1440790712442164</v>
+      </c>
+      <c r="C62">
+        <v>-0.08971477961902444</v>
+      </c>
+      <c r="D62">
+        <v>-0.04676563807878637</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001047240507688145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006129371132691503</v>
+      </c>
+      <c r="C63">
+        <v>-0.05692432824801904</v>
+      </c>
+      <c r="D63">
+        <v>-0.02404420450383422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004930689959383456</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01477207060739016</v>
+      </c>
+      <c r="C64">
+        <v>-0.1040928789418588</v>
+      </c>
+      <c r="D64">
+        <v>-0.05865198891786668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002472080948733362</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01721192011722897</v>
+      </c>
+      <c r="C65">
+        <v>-0.1212510882765526</v>
+      </c>
+      <c r="D65">
+        <v>-0.01663240392265961</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007169746131302383</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01232318702093272</v>
+      </c>
+      <c r="C66">
+        <v>-0.1595121422386286</v>
+      </c>
+      <c r="D66">
+        <v>-0.1123017876333766</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003816223854784881</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01549197227478435</v>
+      </c>
+      <c r="C67">
+        <v>-0.06434425480960215</v>
+      </c>
+      <c r="D67">
+        <v>-0.02956884814377306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006275611348257128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0004231181828002684</v>
+      </c>
+      <c r="C68">
+        <v>-0.08802554224621881</v>
+      </c>
+      <c r="D68">
+        <v>0.2517371333934983</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002889200281057401</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005959305965157175</v>
+      </c>
+      <c r="C69">
+        <v>-0.05037866067796692</v>
+      </c>
+      <c r="D69">
+        <v>-0.03941579024559546</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-7.532764072208974e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001868209707274619</v>
+      </c>
+      <c r="C70">
+        <v>-0.002787954079620375</v>
+      </c>
+      <c r="D70">
+        <v>-0.001109112211437048</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0003810311847251734</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005601790135101401</v>
+      </c>
+      <c r="C71">
+        <v>-0.09791427997055963</v>
+      </c>
+      <c r="D71">
+        <v>0.299224940684623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.00461513348769641</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01540561177706349</v>
+      </c>
+      <c r="C72">
+        <v>-0.1503270093014644</v>
+      </c>
+      <c r="D72">
+        <v>-0.02383335160081948</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01283530600686775</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02904391300282726</v>
+      </c>
+      <c r="C73">
+        <v>-0.276696302809516</v>
+      </c>
+      <c r="D73">
+        <v>-0.04750918147582922</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00477824114968775</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001312895578819943</v>
+      </c>
+      <c r="C74">
+        <v>-0.1049042276642412</v>
+      </c>
+      <c r="D74">
+        <v>-0.03933920996501095</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002301719334090773</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01062607580593494</v>
+      </c>
+      <c r="C75">
+        <v>-0.130109292709946</v>
+      </c>
+      <c r="D75">
+        <v>-0.0238063540361353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009283159917035452</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02122681446721731</v>
+      </c>
+      <c r="C76">
+        <v>-0.1505006287326396</v>
+      </c>
+      <c r="D76">
+        <v>-0.06465052483697366</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.00109413369908698</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02392544396034842</v>
+      </c>
+      <c r="C77">
+        <v>-0.1312863262900655</v>
+      </c>
+      <c r="D77">
+        <v>-0.05516631717315595</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.000820888170718099</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01419210101816737</v>
+      </c>
+      <c r="C78">
+        <v>-0.09489029790065015</v>
+      </c>
+      <c r="D78">
+        <v>-0.06640896584340815</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02404378656908351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03694631927507395</v>
+      </c>
+      <c r="C79">
+        <v>-0.1567101732843548</v>
+      </c>
+      <c r="D79">
+        <v>-0.03287011888325816</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004395399696538332</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01049462002864073</v>
+      </c>
+      <c r="C80">
+        <v>-0.04296095400150625</v>
+      </c>
+      <c r="D80">
+        <v>-0.03030690278182668</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0008470781808846776</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01463954673688339</v>
+      </c>
+      <c r="C81">
+        <v>-0.1272075914873731</v>
+      </c>
+      <c r="D81">
+        <v>-0.04411824016250063</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005897596086384254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01952244233793427</v>
+      </c>
+      <c r="C82">
+        <v>-0.1445803508368373</v>
+      </c>
+      <c r="D82">
+        <v>-0.04290411434342561</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.00902517876364119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01000653076384896</v>
+      </c>
+      <c r="C83">
+        <v>-0.05738460256289267</v>
+      </c>
+      <c r="D83">
+        <v>-0.05448394336590175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01317268874333583</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01164800020450675</v>
+      </c>
+      <c r="C84">
+        <v>-0.03763368322553529</v>
+      </c>
+      <c r="D84">
+        <v>0.006454235097901638</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01515869339526092</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02777528074451595</v>
+      </c>
+      <c r="C85">
+        <v>-0.1304223895457501</v>
+      </c>
+      <c r="D85">
+        <v>-0.04489591306298302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0007395487833792124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005354788716216505</v>
+      </c>
+      <c r="C86">
+        <v>-0.04901555544044237</v>
+      </c>
+      <c r="D86">
+        <v>-0.02373313141501237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004697516084661675</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01027224544250584</v>
+      </c>
+      <c r="C87">
+        <v>-0.1330933548662663</v>
+      </c>
+      <c r="D87">
+        <v>-0.0637621597894823</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01297197330688514</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003091234813856958</v>
+      </c>
+      <c r="C88">
+        <v>-0.06748152407646241</v>
+      </c>
+      <c r="D88">
+        <v>-0.009325419741852666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01453954427775417</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.002007010391927827</v>
+      </c>
+      <c r="C89">
+        <v>-0.1467097430946951</v>
+      </c>
+      <c r="D89">
+        <v>0.3508868341292505</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002280400043637526</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006584902861361313</v>
+      </c>
+      <c r="C90">
+        <v>-0.1222223040326001</v>
+      </c>
+      <c r="D90">
+        <v>0.3243435208085149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001104189483508328</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01016748562308597</v>
+      </c>
+      <c r="C91">
+        <v>-0.1029832404519671</v>
+      </c>
+      <c r="D91">
+        <v>-0.02458163416350054</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008841321588231879</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-9.588650508801188e-05</v>
+      </c>
+      <c r="C92">
+        <v>-0.1352040219242224</v>
+      </c>
+      <c r="D92">
+        <v>0.335342596230642</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0005351557768298323</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004548309427888515</v>
+      </c>
+      <c r="C93">
+        <v>-0.1055114476445605</v>
+      </c>
+      <c r="D93">
+        <v>0.3139662927315877</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004311690478259921</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02223348434787637</v>
+      </c>
+      <c r="C94">
+        <v>-0.1528210823893821</v>
+      </c>
+      <c r="D94">
+        <v>-0.04748367117793711</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005128408187134227</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01607036506917879</v>
+      </c>
+      <c r="C95">
+        <v>-0.1274155489544089</v>
+      </c>
+      <c r="D95">
+        <v>-0.06180305372061244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001892681859951789</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03402579050125815</v>
+      </c>
+      <c r="C97">
+        <v>-0.1945676938576079</v>
+      </c>
+      <c r="D97">
+        <v>-0.00637460445772131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00433098200572571</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.035837668784522</v>
+      </c>
+      <c r="C98">
+        <v>-0.2464938493401354</v>
+      </c>
+      <c r="D98">
+        <v>-0.05428205700130019</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9836959819592407</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.982724479356399</v>
+      </c>
+      <c r="C99">
+        <v>0.1117363644838239</v>
+      </c>
+      <c r="D99">
+        <v>0.02823785785426014</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001105235077173741</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003043281366000309</v>
+      </c>
+      <c r="C101">
+        <v>-0.04944628895538359</v>
+      </c>
+      <c r="D101">
+        <v>-0.004439356521949804</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
